--- a/blanco-meta/telegramsKt/HttpPrimitiveRequest.xlsx
+++ b/blanco-meta/telegramsKt/HttpPrimitiveRequest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/telegramsKt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D2DBC-C1D6-3840-86E3-A2B9D02AD39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586544F-B776-D941-AB00-1F4D4C558BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="5200" windowWidth="33600" windowHeight="20540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,14 +491,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>javax.validation.Valid</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>javax.validation.constraints.NotNull</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>変更不可変数</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ヘンコウフカ </t>
@@ -636,6 +628,14 @@
     <rPh sb="27" eb="29">
       <t xml:space="preserve">ハイレツ </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jakarta.validation.Valid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.NotNull</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1781,50 +1781,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2240,7 +2240,7 @@
   <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2332,17 +2332,17 @@
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="69"/>
       <c r="E9" s="9"/>
       <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="104"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="68" t="s">
         <v>48</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="69"/>
       <c r="E11" s="53"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2656,19 +2656,19 @@
       <c r="E28" s="89"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="E29" s="112" t="s">
         <v>67</v>
       </c>
       <c r="F29" s="71"/>
@@ -2680,11 +2680,11 @@
       <c r="L29" s="71"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="100"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="112"/>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C40" s="58"/>
       <c r="D40" s="58"/>
@@ -2868,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
@@ -2889,7 +2889,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
@@ -2968,78 +2968,78 @@
       <c r="W45" s="11"/>
     </row>
     <row r="46" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="100" t="s">
+      <c r="B46" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="109" t="s">
+      <c r="E46" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="101" t="s">
+      <c r="F46" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="101" t="s">
+      <c r="G46" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="101" t="s">
+      <c r="H46" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="101" t="s">
+      <c r="I46" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J46" s="98" t="s">
+      <c r="J46" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="K46" s="98" t="s">
+      <c r="K46" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="M46" s="111" t="s">
+      <c r="L46" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="N46" s="107" t="s">
+      <c r="N46" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="O46" s="108"/>
-      <c r="P46" s="107" t="s">
+      <c r="O46" s="103"/>
+      <c r="P46" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="Q46" s="108"/>
+      <c r="Q46" s="103"/>
       <c r="R46" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="S46" s="101" t="s">
+      <c r="S46" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="T46" s="101"/>
+      <c r="T46" s="104"/>
       <c r="U46" s="12"/>
       <c r="V46" s="13"/>
       <c r="W46" s="7"/>
     </row>
     <row r="47" spans="1:23">
-      <c r="A47" s="100"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="112"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="111"/>
       <c r="N47" s="36" t="s">
         <v>14</v>
       </c>
@@ -3055,8 +3055,8 @@
       <c r="R47" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
+      <c r="S47" s="104"/>
+      <c r="T47" s="104"/>
       <c r="U47" s="14"/>
       <c r="V47" s="26"/>
       <c r="W47" s="11"/>
@@ -3110,10 +3110,10 @@
         <v>2</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -3137,7 +3137,7 @@
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
       <c r="S49" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T49" s="18"/>
       <c r="U49" s="18"/>
@@ -3150,21 +3150,21 @@
         <v>3</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I50" s="96" t="s">
         <v>65</v>
@@ -3185,7 +3185,7 @@
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
       <c r="S50" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T50" s="18"/>
       <c r="U50" s="18"/>
@@ -3238,10 +3238,10 @@
         <v>5</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -3265,7 +3265,7 @@
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
       <c r="S52" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T52" s="18"/>
       <c r="U52" s="18"/>
@@ -3278,10 +3278,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -3301,7 +3301,7 @@
       <c r="Q53" s="17"/>
       <c r="R53" s="17"/>
       <c r="S53" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T53" s="18"/>
       <c r="U53" s="18"/>
@@ -3314,10 +3314,10 @@
         <v>7</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -3326,7 +3326,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K54" s="78" t="s">
         <v>37</v>
@@ -3339,7 +3339,7 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
       <c r="S54" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T54" s="18"/>
       <c r="U54" s="18"/>
@@ -3628,6 +3628,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="L46:L47"/>
     <mergeCell ref="N46:O46"/>
@@ -3644,12 +3650,6 @@
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="9">
